--- a/notes/conditions1.xlsx
+++ b/notes/conditions1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A17E5-3E53-994D-8155-3902B0A14737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71BF777-3D79-4741-A0CB-CA06E43AC184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="2" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="232">
   <si>
     <t>FACTORS</t>
   </si>
@@ -575,9 +575,6 @@
     <t>FCE</t>
   </si>
   <si>
-    <t>Is there a E or a C?</t>
-  </si>
-  <si>
     <t>There is no G but</t>
   </si>
   <si>
@@ -702,6 +699,45 @@
   </si>
   <si>
     <t>Fox</t>
+  </si>
+  <si>
+    <t>Is there an E or a C?</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>There is an</t>
+  </si>
+  <si>
+    <t>The is no</t>
+  </si>
+  <si>
+    <t>Yes,</t>
+  </si>
+  <si>
+    <t>there is one.</t>
+  </si>
+  <si>
+    <t>No,</t>
+  </si>
+  <si>
+    <t>there isn't one.</t>
+  </si>
+  <si>
+    <t>There is a</t>
+  </si>
+  <si>
+    <t>Y.</t>
+  </si>
+  <si>
+    <t>There is no</t>
+  </si>
+  <si>
+    <t>C.</t>
   </si>
 </sst>
 </file>
@@ -724,7 +760,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +782,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -881,6 +923,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,11 +1248,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD98CBC-AE24-7441-ABC5-9741245297FD}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="D5" zoomScale="185" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1218,10 +1266,10 @@
         <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>152</v>
@@ -1248,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1259,34 +1307,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" t="s">
         <v>198</v>
       </c>
-      <c r="G2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>199</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>200</v>
-      </c>
-      <c r="L2" t="s">
-        <v>201</v>
       </c>
       <c r="M2" t="s">
         <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1294,34 +1342,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
         <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" t="s">
         <v>203</v>
       </c>
-      <c r="K3" t="s">
-        <v>204</v>
-      </c>
       <c r="L3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M3" t="s">
         <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1329,34 +1377,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" t="s">
         <v>205</v>
       </c>
-      <c r="C4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" t="s">
         <v>206</v>
       </c>
-      <c r="G4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" t="s">
-        <v>207</v>
-      </c>
       <c r="L4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1364,34 +1412,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
         <v>208</v>
       </c>
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" t="s">
         <v>209</v>
       </c>
-      <c r="G5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" t="s">
         <v>210</v>
       </c>
-      <c r="L5" t="s">
-        <v>201</v>
-      </c>
-      <c r="M5" t="s">
-        <v>211</v>
-      </c>
       <c r="N5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1402,10 +1450,10 @@
         <v>117</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>138</v>
@@ -1443,10 +1491,10 @@
         <v>118</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>138</v>
@@ -1461,7 +1509,7 @@
         <v>120</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>119</v>
@@ -1484,10 +1532,10 @@
         <v>126</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>139</v>
@@ -1522,10 +1570,10 @@
         <v>132</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>139</v>
@@ -1560,10 +1608,10 @@
         <v>140</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>138</v>
@@ -1598,10 +1646,10 @@
         <v>144</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>138</v>
@@ -1636,10 +1684,10 @@
         <v>148</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>138</v>
@@ -1674,10 +1722,10 @@
         <v>168</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>138</v>
@@ -1712,10 +1760,10 @@
         <v>156</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>139</v>
@@ -1750,10 +1798,10 @@
         <v>160</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>139</v>
@@ -1788,10 +1836,10 @@
         <v>164</v>
       </c>
       <c r="C16" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>138</v>
@@ -1826,10 +1874,10 @@
         <v>167</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>138</v>
@@ -1864,10 +1912,10 @@
         <v>172</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>138</v>
@@ -1902,16 +1950,16 @@
         <v>176</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>138</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>9</v>
@@ -1920,13 +1968,13 @@
         <v>120</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>119</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L19" s="24" t="s">
         <v>55</v>
@@ -1937,19 +1985,19 @@
         <v>3</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>139</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>5</v>
@@ -1964,7 +2012,7 @@
         <v>119</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L20" s="24" t="s">
         <v>55</v>
@@ -1975,19 +2023,19 @@
         <v>4</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>139</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>9</v>
@@ -1996,13 +2044,13 @@
         <v>119</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>119</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L21" s="24" t="s">
         <v>55</v>
@@ -2013,19 +2061,19 @@
         <v>5</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>138</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>5</v>
@@ -2034,13 +2082,13 @@
         <v>119</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>120</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L22" s="24" t="s">
         <v>55</v>
@@ -2051,19 +2099,19 @@
         <v>6</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>219</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>138</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>9</v>
@@ -2072,13 +2120,13 @@
         <v>119</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>120</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L23" s="24" t="s">
         <v>55</v>
@@ -2092,10 +2140,10 @@
         <v>82</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>67</v>
@@ -2104,12 +2152,14 @@
         <v>93</v>
       </c>
       <c r="H24" s="29"/>
-      <c r="I24" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29" t="s">
+      <c r="I24" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2121,10 +2171,10 @@
         <v>84</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>68</v>
@@ -2133,12 +2183,14 @@
         <v>93</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1" t="s">
+      <c r="I25" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2150,10 +2202,10 @@
         <v>79</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>111</v>
@@ -2162,12 +2214,14 @@
         <v>93</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
+      <c r="I26" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2179,10 +2233,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>112</v>
@@ -2191,12 +2245,14 @@
         <v>93</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="29" t="s">
+      <c r="I27" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2208,10 +2264,10 @@
         <v>90</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>113</v>
@@ -2220,12 +2276,14 @@
         <v>93</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="29" t="s">
+      <c r="I28" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2237,10 +2295,10 @@
         <v>91</v>
       </c>
       <c r="C29" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>115</v>
@@ -2249,12 +2307,14 @@
         <v>93</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="29" t="s">
+      <c r="I29" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" s="35"/>
+      <c r="K29" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2266,10 +2326,10 @@
         <v>78</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>85</v>
@@ -2278,12 +2338,14 @@
         <v>93</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1" t="s">
+      <c r="I30" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="35"/>
+      <c r="K30" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2295,10 +2357,10 @@
         <v>89</v>
       </c>
       <c r="C31" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>88</v>
@@ -2307,12 +2369,14 @@
         <v>93</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
+      <c r="I31" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2324,10 +2388,10 @@
         <v>101</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>99</v>
@@ -2336,12 +2400,14 @@
         <v>93</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1" t="s">
+      <c r="I32" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2353,10 +2419,10 @@
         <v>102</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>99</v>
@@ -2365,12 +2431,14 @@
         <v>93</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1" t="s">
+      <c r="I33" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="L33" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2382,10 +2450,10 @@
         <v>103</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>100</v>
@@ -2393,11 +2461,14 @@
       <c r="G34" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1" t="s">
+      <c r="I34" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2409,10 +2480,10 @@
         <v>104</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>100</v>
@@ -2420,11 +2491,14 @@
       <c r="G35" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
+      <c r="I35" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="J35" s="35"/>
+      <c r="K35" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="L35" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2451,10 +2525,10 @@
         <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>152</v>
@@ -2481,10 +2555,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
@@ -2495,34 +2569,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" t="s">
         <v>198</v>
       </c>
-      <c r="G2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>199</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>200</v>
-      </c>
-      <c r="L2" t="s">
-        <v>201</v>
       </c>
       <c r="M2" t="s">
         <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -2530,34 +2604,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
         <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" t="s">
         <v>203</v>
       </c>
-      <c r="K3" t="s">
-        <v>204</v>
-      </c>
       <c r="L3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M3" t="s">
         <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -2565,34 +2639,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" t="s">
         <v>205</v>
       </c>
-      <c r="C4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" t="s">
         <v>206</v>
       </c>
-      <c r="G4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" t="s">
-        <v>207</v>
-      </c>
       <c r="L4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -2600,34 +2674,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
         <v>208</v>
       </c>
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" t="s">
         <v>209</v>
       </c>
-      <c r="G5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" t="s">
         <v>210</v>
       </c>
-      <c r="L5" t="s">
-        <v>201</v>
-      </c>
-      <c r="M5" t="s">
-        <v>211</v>
-      </c>
       <c r="N5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2639,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC7F87A-D3A0-7643-A0A1-BADC795412EC}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2658,10 +2732,10 @@
         <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>75</v>
@@ -2700,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
         <v>218</v>
-      </c>
-      <c r="C2" t="s">
-        <v>219</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>117</v>
@@ -2742,10 +2816,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>118</v>
@@ -2763,7 +2837,7 @@
         <v>120</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J3" s="24" t="s">
         <v>119</v>
@@ -2784,10 +2858,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" t="s">
-        <v>219</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>126</v>
@@ -2826,10 +2900,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>132</v>
@@ -2868,10 +2942,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
         <v>218</v>
-      </c>
-      <c r="C6" t="s">
-        <v>219</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>140</v>
@@ -2910,10 +2984,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>144</v>
@@ -2952,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="s">
         <v>218</v>
-      </c>
-      <c r="C8" t="s">
-        <v>219</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>148</v>
@@ -2994,10 +3068,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>168</v>
@@ -3036,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
         <v>218</v>
-      </c>
-      <c r="C10" t="s">
-        <v>219</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>156</v>
@@ -3078,10 +3152,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>160</v>
@@ -3116,10 +3190,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
         <v>218</v>
-      </c>
-      <c r="C12" t="s">
-        <v>219</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>164</v>
@@ -3154,10 +3228,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>167</v>
@@ -3192,10 +3266,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>172</v>
@@ -3230,10 +3304,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" t="s">
         <v>218</v>
-      </c>
-      <c r="C15" t="s">
-        <v>219</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>176</v>
@@ -3242,7 +3316,7 @@
         <v>138</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>9</v>
@@ -3251,13 +3325,13 @@
         <v>120</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>119</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L15" s="25" t="s">
         <v>55</v>
@@ -3268,19 +3342,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>139</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>5</v>
@@ -3295,7 +3369,7 @@
         <v>119</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L16" s="25" t="s">
         <v>55</v>
@@ -3306,19 +3380,19 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" t="s">
         <v>218</v>
       </c>
-      <c r="C17" t="s">
-        <v>219</v>
-      </c>
       <c r="D17" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>139</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>9</v>
@@ -3327,13 +3401,13 @@
         <v>119</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>119</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L17" s="25" t="s">
         <v>55</v>
@@ -3344,19 +3418,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>138</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>5</v>
@@ -3365,13 +3439,13 @@
         <v>119</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>120</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L18" s="25" t="s">
         <v>55</v>
@@ -3382,19 +3456,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="D19" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>138</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>9</v>
@@ -3403,13 +3477,13 @@
         <v>119</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>120</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>55</v>
@@ -3425,7 +3499,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3435,7 +3509,7 @@
     <col min="4" max="4" width="22.6640625" style="29" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="29"/>
     <col min="6" max="6" width="16.1640625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" style="29" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="29" customWidth="1"/>
     <col min="10" max="15" width="10.83203125" style="29"/>
@@ -3486,7 +3560,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>107</v>
@@ -3518,7 +3592,7 @@
         <v>117</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>107</v>
@@ -3550,7 +3624,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>107</v>
@@ -3582,7 +3656,7 @@
         <v>117</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>107</v>
@@ -3614,7 +3688,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>107</v>
@@ -3646,7 +3720,7 @@
         <v>117</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>107</v>
@@ -3678,7 +3752,7 @@
         <v>117</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>107</v>
@@ -3710,7 +3784,7 @@
         <v>117</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>107</v>
@@ -3742,7 +3816,7 @@
         <v>117</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>107</v>
@@ -3774,7 +3848,7 @@
         <v>117</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>107</v>
@@ -3806,7 +3880,7 @@
         <v>117</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>107</v>
@@ -3838,7 +3912,7 @@
         <v>117</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>107</v>
@@ -4083,7 +4157,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4096,10 +4170,10 @@
         <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>152</v>
@@ -4138,10 +4212,10 @@
         <v>82</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>67</v>
@@ -4151,10 +4225,12 @@
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="K2" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="L2" s="29" t="s">
         <v>76</v>
       </c>
@@ -4167,10 +4243,10 @@
         <v>84</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>68</v>
@@ -4180,10 +4256,12 @@
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="29" t="s">
+        <v>221</v>
+      </c>
       <c r="L3" s="1" t="s">
         <v>76</v>
       </c>
@@ -4196,10 +4274,10 @@
         <v>79</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>111</v>
@@ -4209,10 +4287,12 @@
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="29" t="s">
+        <v>225</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>76</v>
       </c>
@@ -4225,10 +4305,10 @@
         <v>87</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>112</v>
@@ -4238,10 +4318,12 @@
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="1" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="29" t="s">
+        <v>227</v>
+      </c>
       <c r="L5" s="29" t="s">
         <v>76</v>
       </c>
@@ -4254,10 +4336,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>113</v>
@@ -4267,10 +4349,12 @@
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="1" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="29" t="s">
+        <v>229</v>
+      </c>
       <c r="L6" s="29" t="s">
         <v>76</v>
       </c>
@@ -4283,10 +4367,10 @@
         <v>91</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>115</v>
@@ -4296,10 +4380,12 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="1" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="29" t="s">
+        <v>231</v>
+      </c>
       <c r="L7" s="29" t="s">
         <v>76</v>
       </c>
@@ -4312,10 +4398,10 @@
         <v>78</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>85</v>
@@ -4325,10 +4411,12 @@
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="1" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="29" t="s">
+        <v>225</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>76</v>
       </c>
@@ -4341,10 +4429,10 @@
         <v>89</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>88</v>
@@ -4354,10 +4442,12 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="29" t="s">
+        <v>227</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>76</v>
       </c>
@@ -4370,10 +4460,10 @@
         <v>101</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>99</v>
@@ -4383,10 +4473,12 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="29" t="s">
+        <v>225</v>
+      </c>
       <c r="L10" s="1" t="s">
         <v>76</v>
       </c>
@@ -4399,10 +4491,10 @@
         <v>102</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>99</v>
@@ -4412,10 +4504,12 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="29" t="s">
+        <v>227</v>
+      </c>
       <c r="L11" s="1" t="s">
         <v>76</v>
       </c>
@@ -4428,10 +4522,10 @@
         <v>103</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>100</v>
@@ -4440,9 +4534,12 @@
         <v>93</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="29" t="s">
+        <v>225</v>
+      </c>
       <c r="L12" s="1" t="s">
         <v>76</v>
       </c>
@@ -4455,10 +4552,10 @@
         <v>104</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>100</v>
@@ -4467,9 +4564,12 @@
         <v>93</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="29" t="s">
+        <v>227</v>
+      </c>
       <c r="L13" s="1" t="s">
         <v>76</v>
       </c>
